--- a/data/trans_orig/Q5418_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5418_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>4533</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1596</v>
+        <v>2041</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9186</v>
+        <v>8868</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.07436038232964327</v>
+        <v>0.07436038232964329</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02618600665638689</v>
+        <v>0.03348659014613642</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1506981855125255</v>
+        <v>0.1454859928410158</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -762,19 +762,19 @@
         <v>6447</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3381</v>
+        <v>3223</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10736</v>
+        <v>10373</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09877170254760086</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05178820918176529</v>
+        <v>0.0493714349418842</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1644727119582692</v>
+        <v>0.1589156183172593</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -783,19 +783,19 @@
         <v>10980</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6769</v>
+        <v>6632</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17341</v>
+        <v>16517</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.08698390055565956</v>
+        <v>0.08698390055565958</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05362480561224124</v>
+        <v>0.05254180405033169</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1373782203608253</v>
+        <v>0.1308481012287678</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>8751</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5060</v>
+        <v>5062</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14027</v>
+        <v>14711</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1435570345708811</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08300589775511785</v>
+        <v>0.08304514591829752</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2301172949009362</v>
+        <v>0.2413397836609231</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -833,19 +833,19 @@
         <v>5899</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3271</v>
+        <v>3350</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9762</v>
+        <v>9960</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0903745649324921</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05010788635973597</v>
+        <v>0.05131686869689105</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1495527614983628</v>
+        <v>0.1525851422091066</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -854,19 +854,19 @@
         <v>14650</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9424</v>
+        <v>9547</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>20800</v>
+        <v>21627</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.116055454615738</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07466007181384271</v>
+        <v>0.07563206972046707</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1647746808052458</v>
+        <v>0.17132813089811</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>47672</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>41704</v>
+        <v>41626</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>52190</v>
+        <v>52268</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7820825830994755</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6841716259466072</v>
+        <v>0.6828944036825055</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8561997298247307</v>
+        <v>0.857492976363909</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>110</v>
@@ -904,19 +904,19 @@
         <v>52929</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>48213</v>
+        <v>48134</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>57225</v>
+        <v>56966</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.810853732519907</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7385987869083357</v>
+        <v>0.7373944517020538</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8766677431682075</v>
+        <v>0.8726870745092857</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>175</v>
@@ -925,19 +925,19 @@
         <v>100601</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>92313</v>
+        <v>92655</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>106799</v>
+        <v>107227</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.7969606448286023</v>
+        <v>0.7969606448286024</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7313030690484861</v>
+        <v>0.7340134128320041</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.846062626653342</v>
+        <v>0.849453539970931</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>5545</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2743</v>
+        <v>1871</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11125</v>
+        <v>11384</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0634128940798023</v>
+        <v>0.06341289407980229</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03136864683263298</v>
+        <v>0.02139096464190565</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.127220658348944</v>
+        <v>0.130187305863998</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>29</v>
@@ -1050,19 +1050,19 @@
         <v>19216</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12766</v>
+        <v>13466</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>26580</v>
+        <v>26131</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1419965036893795</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09433158543771213</v>
+        <v>0.09950269738307033</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1964114048956269</v>
+        <v>0.1930974489138274</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>35</v>
@@ -1071,19 +1071,19 @@
         <v>24761</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>17736</v>
+        <v>17767</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>33805</v>
+        <v>34037</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1111503319396838</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07961744486204105</v>
+        <v>0.07975363378792864</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1517492839177907</v>
+        <v>0.1527891335453837</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>4754</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1864</v>
+        <v>1838</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10456</v>
+        <v>9776</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05436576670870338</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02131152085508865</v>
+        <v>0.02101824489555839</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1195709030304297</v>
+        <v>0.1117939959122516</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>26</v>
@@ -1121,19 +1121,19 @@
         <v>15838</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>10421</v>
+        <v>10688</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>21924</v>
+        <v>22671</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1170309506047315</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07700538514328636</v>
+        <v>0.0789780208411498</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1620052743873789</v>
+        <v>0.1675287754470625</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>31</v>
@@ -1142,19 +1142,19 @@
         <v>20591</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>14233</v>
+        <v>13984</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>28434</v>
+        <v>28147</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.09243318734612486</v>
+        <v>0.09243318734612484</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06389026301141128</v>
+        <v>0.06277447485184207</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1276373210872502</v>
+        <v>0.126349555505533</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>77145</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>70534</v>
+        <v>70596</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>81811</v>
+        <v>81841</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8822213392114944</v>
+        <v>0.8822213392114943</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8066168683101806</v>
+        <v>0.8073273584995704</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9355835845218011</v>
+        <v>0.9359246245888119</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>168</v>
@@ -1192,19 +1192,19 @@
         <v>100274</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>91849</v>
+        <v>92469</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>108151</v>
+        <v>107896</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.740972545705889</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6787163709763969</v>
+        <v>0.6832927858757513</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7991794563453188</v>
+        <v>0.7972943796842079</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>251</v>
@@ -1213,19 +1213,19 @@
         <v>177418</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>166813</v>
+        <v>166742</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>186489</v>
+        <v>186352</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.7964164807141914</v>
+        <v>0.7964164807141912</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7488099918575456</v>
+        <v>0.7484922988537126</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8371317856172739</v>
+        <v>0.8365195307626851</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>16620</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11373</v>
+        <v>11360</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>22142</v>
+        <v>22289</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2299237131864104</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1573387453948553</v>
+        <v>0.1571572757170623</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3063085068158256</v>
+        <v>0.3083468305966413</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>31</v>
@@ -1338,19 +1338,19 @@
         <v>15315</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11289</v>
+        <v>10702</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>21242</v>
+        <v>21001</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1783937617136845</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1315013807233599</v>
+        <v>0.1246592348340933</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2474314297214982</v>
+        <v>0.2446264426008914</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>60</v>
@@ -1359,19 +1359,19 @@
         <v>31935</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>25186</v>
+        <v>25264</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>39475</v>
+        <v>39239</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.2019485794165132</v>
+        <v>0.2019485794165133</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1592671476892145</v>
+        <v>0.1597616560111253</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2496301911742779</v>
+        <v>0.2481368713826038</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>2451</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>655</v>
+        <v>612</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5875</v>
+        <v>5568</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03390358463129064</v>
+        <v>0.03390358463129063</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009055012285253189</v>
+        <v>0.008460234361904739</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08127097602473835</v>
+        <v>0.07702593408242032</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -1409,19 +1409,19 @@
         <v>10692</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6739</v>
+        <v>6758</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15911</v>
+        <v>16428</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1245417808053933</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07849627352945002</v>
+        <v>0.07871646336601149</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1853346597391667</v>
+        <v>0.1913601863837077</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -1430,19 +1430,19 @@
         <v>13143</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8854</v>
+        <v>8651</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18515</v>
+        <v>18388</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08311022252177599</v>
+        <v>0.08311022252177601</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05599119911123359</v>
+        <v>0.05470332812638409</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.117081634234046</v>
+        <v>0.1162796024684176</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>53214</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>46974</v>
+        <v>47311</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>58288</v>
+        <v>58455</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7361727021822991</v>
+        <v>0.736172702182299</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.649838216057624</v>
+        <v>0.6545028416912344</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8063697043695005</v>
+        <v>0.8086739055298843</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>117</v>
@@ -1480,19 +1480,19 @@
         <v>59843</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>53706</v>
+        <v>54001</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>65199</v>
+        <v>65958</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6970644574809221</v>
+        <v>0.6970644574809222</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6255755866745409</v>
+        <v>0.6290101389242394</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7594493221479115</v>
+        <v>0.7682894355641852</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>206</v>
@@ -1501,19 +1501,19 @@
         <v>113057</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>104985</v>
+        <v>104285</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>121206</v>
+        <v>120369</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7149411980617106</v>
+        <v>0.7149411980617109</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6638953677239645</v>
+        <v>0.6594687208168192</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7664697180708558</v>
+        <v>0.7611796183336365</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>3382</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1124</v>
+        <v>1252</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7062</v>
+        <v>7920</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04096654506040805</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01361340634524789</v>
+        <v>0.01516111722811341</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0855356371693119</v>
+        <v>0.09592416786651141</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -1626,19 +1626,19 @@
         <v>10016</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6563</v>
+        <v>6551</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14374</v>
+        <v>14377</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09063862456141043</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05939149179841211</v>
+        <v>0.05928239878440855</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1300807069120165</v>
+        <v>0.1301054216819118</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -1647,19 +1647,19 @@
         <v>13398</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8779</v>
+        <v>9271</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18558</v>
+        <v>19234</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06939626926619541</v>
+        <v>0.0693962692661954</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04547243842821489</v>
+        <v>0.04801665625909809</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09612227608724139</v>
+        <v>0.0996227396704064</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>10079</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5831</v>
+        <v>6171</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15495</v>
+        <v>15612</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1220729645754217</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07062042138813031</v>
+        <v>0.0747448116833332</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.187670278855378</v>
+        <v>0.1890814225184355</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>22</v>
@@ -1697,19 +1697,19 @@
         <v>9046</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5761</v>
+        <v>5681</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13167</v>
+        <v>12736</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08186292264925654</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0521323574142428</v>
+        <v>0.05141099967527759</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1191568832939003</v>
+        <v>0.1152543298779415</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>37</v>
@@ -1718,19 +1718,19 @@
         <v>19125</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13346</v>
+        <v>13119</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>25649</v>
+        <v>25774</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09905882033688718</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06912741764808752</v>
+        <v>0.06794761147656396</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1328500097323685</v>
+        <v>0.1334968303812886</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>69105</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>62937</v>
+        <v>62924</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>73846</v>
+        <v>73543</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8369604903641703</v>
+        <v>0.8369604903641701</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7622539825822077</v>
+        <v>0.7620970579464196</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8943809982016419</v>
+        <v>0.8907065094123885</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>211</v>
@@ -1768,19 +1768,19 @@
         <v>91442</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>85846</v>
+        <v>86064</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>96422</v>
+        <v>95962</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.8274984527893331</v>
+        <v>0.8274984527893332</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7768621359669075</v>
+        <v>0.7788311639265418</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8725637513164225</v>
+        <v>0.8684068293294673</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>308</v>
@@ -1789,19 +1789,19 @@
         <v>160547</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>153095</v>
+        <v>152059</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>167857</v>
+        <v>167383</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8315449103969174</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7929474036353615</v>
+        <v>0.7875782037061897</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8694052580193681</v>
+        <v>0.866948230008829</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>1566</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4157</v>
+        <v>4204</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.04290339579947606</v>
+        <v>0.04290339579947604</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01401346591429848</v>
+        <v>0.01413189993688535</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1138849309402086</v>
+        <v>0.1151777879347311</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1914,19 +1914,19 @@
         <v>1166</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3235</v>
+        <v>3149</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01894223781777357</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.00575046377254846</v>
+        <v>0.005763915364483533</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0525578565103878</v>
+        <v>0.05116926677082319</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -1935,19 +1935,19 @@
         <v>2732</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1113</v>
+        <v>1046</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5588</v>
+        <v>5732</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.02786319014285583</v>
+        <v>0.02786319014285582</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01135104393194314</v>
+        <v>0.01066888812995023</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05698914972250354</v>
+        <v>0.05846746504575357</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>4565</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2241</v>
+        <v>2448</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8230</v>
+        <v>8152</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1250683448173119</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0614008547906973</v>
+        <v>0.06707038234952326</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2254665465029337</v>
+        <v>0.223331417995895</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>27</v>
@@ -1985,19 +1985,19 @@
         <v>10717</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7121</v>
+        <v>7378</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>14710</v>
+        <v>14981</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1741423718291909</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1157097611263113</v>
+        <v>0.1198894499846696</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2390211915186536</v>
+        <v>0.2434341144400609</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>36</v>
@@ -2006,19 +2006,19 @@
         <v>15282</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>11196</v>
+        <v>10985</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>20523</v>
+        <v>20196</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1558716749076532</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.114188397472908</v>
+        <v>0.1120390026172898</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.209320937082571</v>
+        <v>0.2059871385704321</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>30372</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26712</v>
+        <v>26001</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>32977</v>
+        <v>32932</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8320282593832121</v>
+        <v>0.8320282593832117</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7317684775712541</v>
+        <v>0.7122928544727769</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9034032229086407</v>
+        <v>0.9021727223712459</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>135</v>
@@ -2056,19 +2056,19 @@
         <v>49659</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>45597</v>
+        <v>45076</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>53255</v>
+        <v>52889</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8069153903530355</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7409125628533135</v>
+        <v>0.7324414761638848</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8653426315888525</v>
+        <v>0.8593888338423097</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>194</v>
@@ -2077,19 +2077,19 @@
         <v>80031</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>74685</v>
+        <v>74646</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>84474</v>
+        <v>84615</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8162651349494912</v>
+        <v>0.8162651349494909</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7617470628854023</v>
+        <v>0.7613442504243688</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.861588266090347</v>
+        <v>0.8630173554316722</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>13259</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9658</v>
+        <v>9103</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>18064</v>
+        <v>17524</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2201548311469984</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.160362195148169</v>
+        <v>0.1511547379838573</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2999543224361924</v>
+        <v>0.2909862814090416</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>46</v>
@@ -2202,19 +2202,19 @@
         <v>15775</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>11873</v>
+        <v>12004</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>20100</v>
+        <v>20155</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2343655917281133</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1764011308405932</v>
+        <v>0.1783455484413012</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2986242575185514</v>
+        <v>0.2994343638798871</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>77</v>
@@ -2223,19 +2223,19 @@
         <v>29033</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>23527</v>
+        <v>23175</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>35654</v>
+        <v>34673</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2276549445048076</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1844766401052138</v>
+        <v>0.1817197851778122</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.279567542524438</v>
+        <v>0.2718750450866578</v>
       </c>
     </row>
     <row r="25">
@@ -2252,19 +2252,19 @@
         <v>6600</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3760</v>
+        <v>3985</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10550</v>
+        <v>10716</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1095956858748424</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06243095781088594</v>
+        <v>0.06616364140503611</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1751869123889891</v>
+        <v>0.1779370470624363</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>25</v>
@@ -2273,19 +2273,19 @@
         <v>8655</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5758</v>
+        <v>5833</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12101</v>
+        <v>12152</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1285811211138057</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08555214482285406</v>
+        <v>0.08665299151906367</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1797824583783565</v>
+        <v>0.1805409964366766</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>40</v>
@@ -2294,19 +2294,19 @@
         <v>15255</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>11118</v>
+        <v>11071</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>20578</v>
+        <v>20037</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1196157629584576</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08718040432168486</v>
+        <v>0.08680573623548646</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1613559391909406</v>
+        <v>0.1571140096368729</v>
       </c>
     </row>
     <row r="26">
@@ -2323,19 +2323,19 @@
         <v>40365</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>35167</v>
+        <v>35364</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>44743</v>
+        <v>44609</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6702494829781593</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5839363084811493</v>
+        <v>0.5872137129970338</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7429420571103835</v>
+        <v>0.7407168971713719</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>106</v>
@@ -2344,19 +2344,19 @@
         <v>42879</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>38347</v>
+        <v>38066</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>47829</v>
+        <v>47407</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6370532871580812</v>
+        <v>0.6370532871580811</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5697106162772574</v>
+        <v>0.5655449655575635</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7105911318639122</v>
+        <v>0.7043145537505017</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>195</v>
@@ -2365,19 +2365,19 @@
         <v>83244</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>76537</v>
+        <v>76103</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>89969</v>
+        <v>89628</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6527292925367347</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6001376003805492</v>
+        <v>0.596735712279595</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7054609056772304</v>
+        <v>0.7027918423073173</v>
       </c>
     </row>
     <row r="27">
@@ -2469,19 +2469,19 @@
         <v>5746</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2036</v>
+        <v>2053</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>11625</v>
+        <v>11438</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.03796418941356595</v>
+        <v>0.03796418941356596</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01345460040868526</v>
+        <v>0.01356487011652601</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07681534834068995</v>
+        <v>0.07558079919961347</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>25</v>
@@ -2490,19 +2490,19 @@
         <v>19286</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>13073</v>
+        <v>13056</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>27928</v>
+        <v>29429</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1175061050315382</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07965096711210636</v>
+        <v>0.07954678396337289</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1701670283936903</v>
+        <v>0.1793122158133864</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>31</v>
@@ -2511,19 +2511,19 @@
         <v>25031</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>17309</v>
+        <v>17953</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>34962</v>
+        <v>35753</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.07934661621816323</v>
+        <v>0.07934661621816326</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0548686436919134</v>
+        <v>0.05691042145327166</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1108283942065037</v>
+        <v>0.1133351631115503</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>8176</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4031</v>
+        <v>3900</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>16134</v>
+        <v>15915</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.05402694306696373</v>
+        <v>0.05402694306696375</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02663277059391792</v>
+        <v>0.02576839067175453</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1066087764390946</v>
+        <v>0.1051572541790972</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>17</v>
@@ -2561,19 +2561,19 @@
         <v>11463</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>6725</v>
+        <v>6785</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>17508</v>
+        <v>17610</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06984474109037016</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0409735113376215</v>
+        <v>0.04134367765618893</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1066771866969056</v>
+        <v>0.1072960086100777</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>25</v>
@@ -2582,19 +2582,19 @@
         <v>19640</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>12967</v>
+        <v>12994</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>29156</v>
+        <v>29032</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.06225630068084573</v>
+        <v>0.06225630068084574</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04110524391240487</v>
+        <v>0.04118899922043445</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09242209954965802</v>
+        <v>0.09203024532169667</v>
       </c>
     </row>
     <row r="30">
@@ -2611,19 +2611,19 @@
         <v>137419</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>128909</v>
+        <v>128614</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>143227</v>
+        <v>142841</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.9080088675194703</v>
+        <v>0.9080088675194702</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8517774267986485</v>
+        <v>0.8498314212840545</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9463883797891768</v>
+        <v>0.943833934390887</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>199</v>
@@ -2632,19 +2632,19 @@
         <v>133375</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>124784</v>
+        <v>124555</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>141446</v>
+        <v>141524</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.8126491538780916</v>
+        <v>0.8126491538780918</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7603036803302226</v>
+        <v>0.7589079269166676</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8618213777427017</v>
+        <v>0.8623015339183818</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>353</v>
@@ -2653,19 +2653,19 @@
         <v>270794</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>258151</v>
+        <v>258458</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>281034</v>
+        <v>281134</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.8583970831009909</v>
+        <v>0.8583970831009911</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8183192374790912</v>
+        <v>0.819291971645139</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8908549414465483</v>
+        <v>0.8911745947111587</v>
       </c>
     </row>
     <row r="31">
@@ -2760,16 +2760,16 @@
         <v>659</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>6578</v>
+        <v>5960</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01632702517740873</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.004078021579293085</v>
+        <v>0.004076888549511232</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04072223312338559</v>
+        <v>0.03689321800877338</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>9</v>
@@ -2778,19 +2778,19 @@
         <v>6225</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3233</v>
+        <v>2907</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11152</v>
+        <v>11346</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0292597876858423</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01519577045356029</v>
+        <v>0.01366431262785448</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.05241553684767403</v>
+        <v>0.05332635741809775</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>13</v>
@@ -2799,19 +2799,19 @@
         <v>8863</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4645</v>
+        <v>4632</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>14167</v>
+        <v>15213</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02367835703786188</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01241019549087471</v>
+        <v>0.01237361492719586</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03784823563601197</v>
+        <v>0.04064285554014498</v>
       </c>
     </row>
     <row r="33">
@@ -2828,19 +2828,19 @@
         <v>8520</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>4416</v>
+        <v>4733</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>13994</v>
+        <v>14050</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.05274399962566591</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02733622858450227</v>
+        <v>0.02930089000272162</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.08662793378269262</v>
+        <v>0.08697718757658582</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>42</v>
@@ -2849,19 +2849,19 @@
         <v>27294</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>19823</v>
+        <v>20223</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>36047</v>
+        <v>37049</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1282827891628896</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.09316976474549774</v>
+        <v>0.0950457468418687</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1694230991109944</v>
+        <v>0.1741325367880672</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>54</v>
@@ -2870,19 +2870,19 @@
         <v>35815</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>27201</v>
+        <v>27820</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>46165</v>
+        <v>46486</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.09568228986821344</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.07267092431679778</v>
+        <v>0.07432291763815473</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.123334162992253</v>
+        <v>0.124191600780189</v>
       </c>
     </row>
     <row r="34">
@@ -2899,19 +2899,19 @@
         <v>150383</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>143975</v>
+        <v>145155</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>154806</v>
+        <v>154802</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.9309289751969254</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8912573711781189</v>
+        <v>0.8985657978937933</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9583101583869944</v>
+        <v>0.9582801273253705</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>292</v>
@@ -2920,19 +2920,19 @@
         <v>179246</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>170438</v>
+        <v>169190</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>188041</v>
+        <v>187482</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.8424574231512681</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8010566269814208</v>
+        <v>0.7951921332999898</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8837946788611218</v>
+        <v>0.8811660077675619</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>508</v>
@@ -2941,19 +2941,19 @@
         <v>329629</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>318810</v>
+        <v>318058</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>339356</v>
+        <v>338876</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.8806393530939246</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.8517343659696727</v>
+        <v>0.8497260658034689</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9066235941604782</v>
+        <v>0.9053422128284623</v>
       </c>
     </row>
     <row r="35">
@@ -3045,19 +3045,19 @@
         <v>53288</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>42577</v>
+        <v>44041</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>64814</v>
+        <v>65341</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.07475225291311967</v>
+        <v>0.07475225291311968</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.05972710265713132</v>
+        <v>0.06178013514389855</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.0909210008612459</v>
+        <v>0.09166092835326066</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>177</v>
@@ -3066,19 +3066,19 @@
         <v>93446</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>79898</v>
+        <v>81053</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>108474</v>
+        <v>108304</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1035186521530225</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.08851065975273742</v>
+        <v>0.08978965084048256</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1201669258668391</v>
+        <v>0.1199776607524031</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>267</v>
@@ -3087,19 +3087,19 @@
         <v>146734</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>131212</v>
+        <v>128943</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>167813</v>
+        <v>165820</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.09082557346856845</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.08121774802730923</v>
+        <v>0.07981337653896256</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1038729596627948</v>
+        <v>0.1026395088505327</v>
       </c>
     </row>
     <row r="37">
@@ -3116,19 +3116,19 @@
         <v>53897</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>42476</v>
+        <v>43594</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>67336</v>
+        <v>66164</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.07560648836324214</v>
+        <v>0.07560648836324216</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0595853696009632</v>
+        <v>0.06115350987375477</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09445917082842889</v>
+        <v>0.09281543683043403</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>191</v>
@@ -3137,19 +3137,19 @@
         <v>99604</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>85800</v>
+        <v>86354</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>114040</v>
+        <v>115123</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1103403322117259</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.09504791581232357</v>
+        <v>0.09566199743244451</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1263321656825289</v>
+        <v>0.1275320928570046</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>271</v>
@@ -3158,19 +3158,19 @@
         <v>153501</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>136337</v>
+        <v>135901</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>171817</v>
+        <v>172926</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.09501413829688979</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.08439016884142632</v>
+        <v>0.08412052039234805</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1063514235017334</v>
+        <v>0.1070377732312025</v>
       </c>
     </row>
     <row r="38">
@@ -3187,19 +3187,19 @@
         <v>605674</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>589788</v>
+        <v>588917</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>621058</v>
+        <v>621026</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8496412587236383</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8273550622005665</v>
+        <v>0.826133790324836</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8712210811608386</v>
+        <v>0.8711764682920335</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1338</v>
@@ -3208,19 +3208,19 @@
         <v>709648</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>690367</v>
+        <v>690039</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>726981</v>
+        <v>728618</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.7861410156352515</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7647815717801142</v>
+        <v>0.7644188738930342</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8053428788668252</v>
+        <v>0.8071561528651804</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2190</v>
@@ -3229,19 +3229,19 @@
         <v>1315322</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1291392</v>
+        <v>1290369</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1338899</v>
+        <v>1339744</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8141602882345418</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7993478831193297</v>
+        <v>0.7987146636508816</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8287539827247187</v>
+        <v>0.8292769542810839</v>
       </c>
     </row>
     <row r="39">
